--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_9_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_9_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>342859.9686776135</v>
+        <v>340277.9192838939</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -671,13 +671,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>412.2877386950441</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>54.01339794430241</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>140.315783973424</v>
       </c>
       <c r="T2" t="n">
-        <v>12.90418233691155</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
         <v>251.1044530022292</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906499</v>
+        <v>96.65565115906496</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833739</v>
+        <v>33.85559031833728</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,16 +826,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.6385546828073</v>
+        <v>54.94300909414572</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>56.42476282383582</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.4834600519699</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>222.1670476323163</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,10 +896,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>13.52570179859593</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,7 +908,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.52502338186935</v>
+        <v>334.7255736075023</v>
       </c>
       <c r="H5" t="n">
         <v>300.7862872484598</v>
@@ -947,22 +947,22 @@
         <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>19.80516901555394</v>
+        <v>19.80516901555393</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1057,19 +1057,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
         <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>93.78770509982625</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>182.6398866976582</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>260.3458770462163</v>
+        <v>355.8130500877816</v>
       </c>
       <c r="G8" t="n">
-        <v>11.52502338186935</v>
+        <v>411.5250233818693</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,16 +1184,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1294,7 +1294,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>131.3243118665897</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>141.1689542008993</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
         <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>20.43112068613614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856137</v>
+        <v>35.88641949135547</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>61.16269384155182</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336592</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>108.5813113004299</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1895,7 +1895,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2053,19 +2053,19 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>205.5639206769106</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>79.14040151643906</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2245,7 +2245,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2254,10 +2254,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>14.73874327217517</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>243.1373908222617</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2479,10 +2479,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>71.79687029690999</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2612,7 +2612,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>255.6132498317504</v>
+        <v>109.8058856274582</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>73.98898794535445</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,19 +3193,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>2.029664035374494</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3360,7 +3360,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3424,13 +3424,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>43.73846614325492</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634785</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3661,19 +3661,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>47.88058113793219</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3901,16 +3901,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S43" t="n">
-        <v>167.3637267182086</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3955,7 +3955,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4138,16 +4138,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4192,10 +4192,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>107.3363007608859</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1992.254489565959</v>
+        <v>1261.39869913995</v>
       </c>
       <c r="C2" t="n">
-        <v>1623.291972625547</v>
+        <v>1261.39869913995</v>
       </c>
       <c r="D2" t="n">
-        <v>1265.026274018797</v>
+        <v>903.1330005331993</v>
       </c>
       <c r="E2" t="n">
-        <v>879.2380214205527</v>
+        <v>517.344747934955</v>
       </c>
       <c r="F2" t="n">
-        <v>468.2521166309451</v>
+        <v>106.3588431453474</v>
       </c>
       <c r="G2" t="n">
-        <v>51.7998553228197</v>
+        <v>106.3588431453474</v>
       </c>
       <c r="H2" t="n">
-        <v>51.7998553228197</v>
+        <v>106.3588431453474</v>
       </c>
       <c r="I2" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>125.8997233870228</v>
+        <v>125.8997233870233</v>
       </c>
       <c r="K2" t="n">
-        <v>287.6947354520175</v>
+        <v>287.6947354520187</v>
       </c>
       <c r="L2" t="n">
-        <v>928.7179450719113</v>
+        <v>525.3175166702108</v>
       </c>
       <c r="M2" t="n">
-        <v>1224.788511629513</v>
+        <v>821.3880832278138</v>
       </c>
       <c r="N2" t="n">
-        <v>1802.132917462889</v>
+        <v>1126.863189463399</v>
       </c>
       <c r="O2" t="n">
-        <v>2077.249136779522</v>
+        <v>1758.668415689754</v>
       </c>
       <c r="P2" t="n">
         <v>2277.553464068625</v>
       </c>
       <c r="Q2" t="n">
-        <v>2589.992766140985</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="R2" t="n">
-        <v>2589.992766140985</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2589.992766140985</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="T2" t="n">
-        <v>2576.958238527943</v>
+        <v>2236.241780077746</v>
       </c>
       <c r="U2" t="n">
-        <v>2323.31737690953</v>
+        <v>1982.600918459332</v>
       </c>
       <c r="V2" t="n">
-        <v>1992.254489565959</v>
+        <v>1651.538031115761</v>
       </c>
       <c r="W2" t="n">
-        <v>1992.254489565959</v>
+        <v>1651.538031115761</v>
       </c>
       <c r="X2" t="n">
-        <v>1992.254489565959</v>
+        <v>1651.538031115761</v>
       </c>
       <c r="Y2" t="n">
-        <v>1992.254489565959</v>
+        <v>1261.39869913995</v>
       </c>
     </row>
     <row r="3">
@@ -4401,25 +4401,25 @@
         <v>183.6293921686807</v>
       </c>
       <c r="H3" t="n">
-        <v>85.99742130093827</v>
+        <v>85.9974213009382</v>
       </c>
       <c r="I3" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>77.11538214995042</v>
+        <v>201.9455071369554</v>
       </c>
       <c r="K3" t="n">
-        <v>198.538474420229</v>
+        <v>423.9186320969887</v>
       </c>
       <c r="L3" t="n">
-        <v>408.1293476730593</v>
+        <v>1000.641447200244</v>
       </c>
       <c r="M3" t="n">
-        <v>1049.152557292953</v>
+        <v>1264.580978695732</v>
       </c>
       <c r="N3" t="n">
-        <v>1690.175766912847</v>
+        <v>1905.604188315626</v>
       </c>
       <c r="O3" t="n">
         <v>2144.409140067085</v>
@@ -4428,7 +4428,7 @@
         <v>2316.738101020794</v>
       </c>
       <c r="Q3" t="n">
-        <v>2589.992766140985</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="R3" t="n">
         <v>2589.992766140986</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>425.0294312351554</v>
+        <v>2001.547613644293</v>
       </c>
       <c r="C4" t="n">
-        <v>425.0294312351554</v>
+        <v>1832.611430716386</v>
       </c>
       <c r="D4" t="n">
-        <v>425.0294312351554</v>
+        <v>1832.611430716386</v>
       </c>
       <c r="E4" t="n">
-        <v>277.1163376527623</v>
+        <v>1684.698337133993</v>
       </c>
       <c r="F4" t="n">
-        <v>277.1163376527623</v>
+        <v>1537.808389636083</v>
       </c>
       <c r="G4" t="n">
-        <v>108.7945652458862</v>
+        <v>1482.310400652097</v>
       </c>
       <c r="H4" t="n">
-        <v>108.7945652458862</v>
+        <v>1330.590312102682</v>
       </c>
       <c r="I4" t="n">
-        <v>51.7998553228197</v>
+        <v>1330.590312102682</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018396</v>
+        <v>1332.824984110047</v>
       </c>
       <c r="K4" t="n">
-        <v>187.543616615987</v>
+        <v>1466.33407339585</v>
       </c>
       <c r="L4" t="n">
-        <v>413.9157199341309</v>
+        <v>1692.706176713995</v>
       </c>
       <c r="M4" t="n">
-        <v>662.982486266671</v>
+        <v>1941.772943046535</v>
       </c>
       <c r="N4" t="n">
-        <v>911.5616180092716</v>
+        <v>2190.352074789136</v>
       </c>
       <c r="O4" t="n">
-        <v>1125.148384357426</v>
+        <v>2403.938841137291</v>
       </c>
       <c r="P4" t="n">
-        <v>1284.38807899347</v>
+        <v>2563.178535773335</v>
       </c>
       <c r="Q4" t="n">
-        <v>1311.20230936112</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="R4" t="n">
-        <v>1193.542248702565</v>
+        <v>2472.33270548243</v>
       </c>
       <c r="S4" t="n">
-        <v>1193.542248702565</v>
+        <v>2472.33270548243</v>
       </c>
       <c r="T4" t="n">
-        <v>969.1310894780029</v>
+        <v>2472.33270548243</v>
       </c>
       <c r="U4" t="n">
-        <v>969.1310894780029</v>
+        <v>2183.196078474532</v>
       </c>
       <c r="V4" t="n">
-        <v>714.446601272116</v>
+        <v>2183.196078474532</v>
       </c>
       <c r="W4" t="n">
-        <v>425.0294312351554</v>
+        <v>2183.196078474532</v>
       </c>
       <c r="X4" t="n">
-        <v>425.0294312351554</v>
+        <v>2183.196078474532</v>
       </c>
       <c r="Y4" t="n">
-        <v>425.0294312351554</v>
+        <v>2183.196078474532</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1535.968006700175</v>
+        <v>1859.467702232863</v>
       </c>
       <c r="C5" t="n">
-        <v>1522.305681651088</v>
+        <v>1490.505185292451</v>
       </c>
       <c r="D5" t="n">
-        <v>1164.039983044337</v>
+        <v>1490.505185292451</v>
       </c>
       <c r="E5" t="n">
-        <v>778.251730446093</v>
+        <v>1104.716932694207</v>
       </c>
       <c r="F5" t="n">
-        <v>367.2658256564855</v>
+        <v>693.7310279045996</v>
       </c>
       <c r="G5" t="n">
         <v>355.6243878970215</v>
       </c>
       <c r="H5" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I5" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>189.986887110478</v>
+        <v>189.9868871104781</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135507</v>
+        <v>447.8319447135511</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477381</v>
+        <v>804.6133007477388</v>
       </c>
       <c r="M5" t="n">
         <v>1233.270741187502</v>
@@ -4583,34 +4583,34 @@
         <v>2075.818195082061</v>
       </c>
       <c r="P5" t="n">
-        <v>2384.705143645556</v>
+        <v>2384.705143645557</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.493631507461</v>
+        <v>2568.493631507462</v>
       </c>
       <c r="R5" t="n">
-        <v>2589.992766140985</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
         <v>2465.81558556073</v>
       </c>
       <c r="T5" t="n">
-        <v>2257.170226019557</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="U5" t="n">
-        <v>2257.170226019557</v>
+        <v>2212.236357502977</v>
       </c>
       <c r="V5" t="n">
-        <v>1926.107338675986</v>
+        <v>2212.236357502977</v>
       </c>
       <c r="W5" t="n">
-        <v>1926.107338675986</v>
+        <v>1859.467702232863</v>
       </c>
       <c r="X5" t="n">
-        <v>1926.107338675986</v>
+        <v>1859.467702232863</v>
       </c>
       <c r="Y5" t="n">
-        <v>1535.968006700175</v>
+        <v>1859.467702232863</v>
       </c>
     </row>
     <row r="6">
@@ -4641,19 +4641,19 @@
         <v>71.80507655065196</v>
       </c>
       <c r="I6" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>115.2852578226161</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K6" t="n">
-        <v>563.7673318682815</v>
+        <v>598.8031573431329</v>
       </c>
       <c r="L6" t="n">
-        <v>861.0792809845962</v>
+        <v>896.1151064594476</v>
       </c>
       <c r="M6" t="n">
-        <v>1227.385170476922</v>
+        <v>1262.420995951773</v>
       </c>
       <c r="N6" t="n">
         <v>1652.830557277516</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>367.6259857486369</v>
+        <v>982.2794430485947</v>
       </c>
       <c r="C7" t="n">
-        <v>198.6898028207301</v>
+        <v>813.3432601206878</v>
       </c>
       <c r="D7" t="n">
-        <v>198.6898028207301</v>
+        <v>663.226620708352</v>
       </c>
       <c r="E7" t="n">
-        <v>198.6898028207301</v>
+        <v>515.3135271259589</v>
       </c>
       <c r="F7" t="n">
-        <v>51.7998553228197</v>
+        <v>368.4235796280485</v>
       </c>
       <c r="G7" t="n">
-        <v>51.7998553228197</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="H7" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I7" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J7" t="n">
-        <v>77.98108068080546</v>
+        <v>77.98108068080552</v>
       </c>
       <c r="K7" t="n">
-        <v>250.8417132121972</v>
+        <v>250.8417132121973</v>
       </c>
       <c r="L7" t="n">
-        <v>527.5702436225444</v>
+        <v>527.5702436225445</v>
       </c>
       <c r="M7" t="n">
-        <v>829.7308018317422</v>
+        <v>829.7308018317424</v>
       </c>
       <c r="N7" t="n">
-        <v>1130.141273750633</v>
+        <v>1130.141273750634</v>
       </c>
       <c r="O7" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P7" t="n">
-        <v>1591.80738463481</v>
+        <v>1591.807384634811</v>
       </c>
       <c r="Q7" t="n">
         <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1646.983670153878</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="S7" t="n">
-        <v>1450.534004159847</v>
+        <v>1348.412641916873</v>
       </c>
       <c r="T7" t="n">
-        <v>1355.798948503456</v>
+        <v>1348.412641916873</v>
       </c>
       <c r="U7" t="n">
-        <v>1066.681171513855</v>
+        <v>1348.412641916873</v>
       </c>
       <c r="V7" t="n">
-        <v>1066.681171513855</v>
+        <v>1348.412641916873</v>
       </c>
       <c r="W7" t="n">
-        <v>777.264001476894</v>
+        <v>1348.412641916873</v>
       </c>
       <c r="X7" t="n">
-        <v>549.2744505788767</v>
+        <v>1163.927907878834</v>
       </c>
       <c r="Y7" t="n">
-        <v>549.2744505788767</v>
+        <v>1163.927907878834</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1070.470877667295</v>
+        <v>1885.464120536335</v>
       </c>
       <c r="C8" t="n">
-        <v>1070.470877667295</v>
+        <v>1516.501603595923</v>
       </c>
       <c r="D8" t="n">
-        <v>712.2051790605444</v>
+        <v>1516.501603595923</v>
       </c>
       <c r="E8" t="n">
-        <v>326.4169264623002</v>
+        <v>1130.713350997679</v>
       </c>
       <c r="F8" t="n">
-        <v>63.44129308228369</v>
+        <v>771.3062296968895</v>
       </c>
       <c r="G8" t="n">
-        <v>51.7998553228197</v>
+        <v>355.6243878970215</v>
       </c>
       <c r="H8" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I8" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
         <v>189.9868871104782</v>
@@ -4823,31 +4823,31 @@
         <v>2384.705143645557</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.493631507461</v>
+        <v>2568.493631507462</v>
       </c>
       <c r="R8" t="n">
-        <v>2589.992766140985</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
-        <v>2589.992766140985</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T8" t="n">
-        <v>2381.347406599813</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="U8" t="n">
-        <v>2127.76817854206</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="V8" t="n">
-        <v>1796.705291198489</v>
+        <v>2258.929878797415</v>
       </c>
       <c r="W8" t="n">
-        <v>1443.936635928375</v>
+        <v>2258.929878797415</v>
       </c>
       <c r="X8" t="n">
-        <v>1070.470877667295</v>
+        <v>1885.464120536335</v>
       </c>
       <c r="Y8" t="n">
-        <v>1070.470877667295</v>
+        <v>1885.464120536335</v>
       </c>
     </row>
     <row r="9">
@@ -4866,40 +4866,40 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6796705356769</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1451125625619</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G9" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065196</v>
+        <v>71.80507655065199</v>
       </c>
       <c r="I9" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
-        <v>115.2852578226161</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K9" t="n">
-        <v>563.7673318682815</v>
+        <v>532.0623520740558</v>
       </c>
       <c r="L9" t="n">
-        <v>896.1151064594483</v>
+        <v>829.3743011903704</v>
       </c>
       <c r="M9" t="n">
-        <v>1262.420995951774</v>
+        <v>1470.397510810264</v>
       </c>
       <c r="N9" t="n">
-        <v>1652.830557277516</v>
+        <v>1860.807072136007</v>
       </c>
       <c r="O9" t="n">
-        <v>1987.759237993047</v>
+        <v>2195.735752851538</v>
       </c>
       <c r="P9" t="n">
-        <v>2237.235965858066</v>
+        <v>2445.212480716556</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.061870084021</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>617.5245977712796</v>
+        <v>353.386858317989</v>
       </c>
       <c r="C10" t="n">
-        <v>448.5884148433727</v>
+        <v>184.4506753900821</v>
       </c>
       <c r="D10" t="n">
-        <v>448.5884148433727</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="E10" t="n">
-        <v>448.5884148433727</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="F10" t="n">
-        <v>448.5884148433727</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G10" t="n">
-        <v>305.993511610141</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H10" t="n">
-        <v>157.3459760430229</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I10" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080546</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K10" t="n">
         <v>250.8417132121972</v>
@@ -4984,28 +4984,28 @@
         <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1646.983670153878</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="S10" t="n">
-        <v>1646.983670153878</v>
+        <v>1348.412641916872</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.049095695859</v>
+        <v>1125.478067458854</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.931318706258</v>
+        <v>1125.478067458854</v>
       </c>
       <c r="V10" t="n">
-        <v>1134.931318706258</v>
+        <v>870.7935792529669</v>
       </c>
       <c r="W10" t="n">
-        <v>845.5141486692969</v>
+        <v>581.3764092160063</v>
       </c>
       <c r="X10" t="n">
-        <v>617.5245977712796</v>
+        <v>353.386858317989</v>
       </c>
       <c r="Y10" t="n">
-        <v>617.5245977712796</v>
+        <v>353.386858317989</v>
       </c>
     </row>
     <row r="11">
@@ -5033,40 +5033,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349513</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>1052.829365488567</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400717</v>
+        <v>883.8931825606599</v>
       </c>
       <c r="D13" t="n">
-        <v>363.7369613277359</v>
+        <v>733.7765431483241</v>
       </c>
       <c r="E13" t="n">
-        <v>363.7369613277359</v>
+        <v>585.863449565931</v>
       </c>
       <c r="F13" t="n">
-        <v>363.7369613277359</v>
+        <v>438.9735020680206</v>
       </c>
       <c r="G13" t="n">
-        <v>196.5408620426159</v>
+        <v>271.7774027829005</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000541</v>
+        <v>130.0655716250986</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1972.677130397314</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1683.259960360354</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1455.270409462336</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>1234.477830318806</v>
       </c>
     </row>
     <row r="14">
@@ -5267,25 +5267,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
@@ -5297,7 +5297,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5315,10 +5315,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5358,22 +5358,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452613</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718132</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>696.7084350851662</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>634.9279362553159</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993915</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W16" t="n">
-        <v>1327.139029956953</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X16" t="n">
-        <v>1099.149479058936</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y16" t="n">
-        <v>878.356899915406</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="17">
@@ -5510,7 +5510,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5595,25 +5595,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>448.1846595309963</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>943.510265746755</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1540.888753373307</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N18" t="n">
-        <v>1540.888753373307</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,10 +5647,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>948.5505208511906</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>779.6143379232838</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
         <v>779.6143379232838</v>
@@ -5701,22 +5701,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235165</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1975.033022579363</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V19" t="n">
-        <v>1720.348534373476</v>
+        <v>1836.866460342035</v>
       </c>
       <c r="W19" t="n">
-        <v>1430.931364336515</v>
+        <v>1547.449290305074</v>
       </c>
       <c r="X19" t="n">
-        <v>1350.99156482496</v>
+        <v>1319.459739407057</v>
       </c>
       <c r="Y19" t="n">
-        <v>1130.19898568143</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="20">
@@ -5732,16 +5732,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>740.5562989961525</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M21" t="n">
-        <v>740.5562989961525</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>741.8431516380886</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>572.9069687101817</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>422.7903292978459</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>422.7903292978459</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>275.9003817999355</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>108.7042825148155</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X22" t="n">
-        <v>1144.284195611858</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>923.4916164683283</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5975,16 +5975,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -5996,10 +5996,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L24" t="n">
-        <v>943.510265746755</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>1540.888753373307</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373307</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>800.5007694647277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>631.5645865368208</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>481.447947124485</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>333.5348535420919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>333.5348535420919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>166.3387542569719</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6218,34 +6218,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,28 +6300,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1337.934786622704</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1965.532750177311</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1965.532750177311</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2389.155899672379</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>866.4638174991043</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C28" t="n">
-        <v>697.5276345711974</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782946</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038332</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797733</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235164</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258105</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U28" t="n">
-        <v>1786.311582407852</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V28" t="n">
-        <v>1786.311582407852</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W28" t="n">
-        <v>1496.894412370891</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X28" t="n">
-        <v>1268.904861472874</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y28" t="n">
-        <v>1048.112282329344</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="29">
@@ -6455,28 +6455,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>315.9123021921482</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>315.9123021921482</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>913.2907898187001</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373307</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>801.6918836311989</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>632.7557007032921</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>482.6390612909563</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>983.3403484614387</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6689,31 +6689,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>806.8386896933887</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1209.279733667159</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>988.4871545236284</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6923,40 +6923,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7011,7 +7011,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7023,19 +7023,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N36" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,13 +7069,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>719.5738700011939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>550.637687073287</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>550.637687073287</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
         <v>402.7245934908939</v>
@@ -7096,10 +7096,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2402.78281474869</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2402.78281474869</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2183.181349771631</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1894.106123115829</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1639.421634909942</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1350.004464872981</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1122.014913974964</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>901.2223348314336</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7163,61 +7163,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>577.388077746847</v>
       </c>
       <c r="L39" t="n">
-        <v>634.5603720565526</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1231.938859683105</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N39" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>532.5350811160199</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>532.5350811160199</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2398.598860208612</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2215.744025863516</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1996.142560886457</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1707.067334230655</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1452.382846024768</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1162.965675987807</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>934.9761250897898</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>714.1835459462596</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7403,43 +7403,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>245.2306927803937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>842.6091804069456</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N42" t="n">
-        <v>1470.207143961552</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O42" t="n">
-        <v>2022.116874200839</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>382.4184417036842</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2277.908814167929</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2058.30734919087</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1769.232122535068</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7637,31 +7637,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7728,25 +7728,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1468.439756756785</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1647.011051783227</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -7982,25 +7982,25 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>407.47518020374</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>274.6154541391829</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>360.2919261714349</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
-        <v>26.1946181815976</v>
+        <v>26.19461818159724</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,22 +8055,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>101.5656895856104</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>380.8926041660675</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>359.2821607945066</v>
+        <v>359.2821607945058</v>
       </c>
       <c r="O3" t="n">
-        <v>217.6044660634141</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8216,7 +8216,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>-1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>173.7639243740396</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8304,7 +8304,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>35.38972270187077</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.1843750390658</v>
+        <v>20.18437503906577</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>106.3489695567902</v>
       </c>
       <c r="L9" t="n">
-        <v>35.38972270187077</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>277.4922425530995</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>20.1843750390658</v>
@@ -9416,13 +9416,13 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9893,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-12</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10598,7 +10598,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -11075,7 +11075,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -22559,13 +22559,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>177.4513746530095</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885176</v>
+        <v>40.22674961454914</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,10 +22595,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.3157839734241</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>196.9935098922719</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22607,10 +22607,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>281.0793103870832</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22705,10 +22705,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -22720,10 +22720,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>150.2028876639205</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>58.35461367565046</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>119.8635921600877</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>45.37941682721006</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>106.084127257076</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>110.0033420516649</v>
       </c>
     </row>
     <row r="17">
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23935,25 +23935,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012262</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>46.57372264691625</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>146.5692538725981</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24133,7 +24133,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>125.5559695740487</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,25 +24172,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012339</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>43.04708356698248</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,10 +24367,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>68.4978425493139</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,19 +24646,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>30.57122455749374</v>
+        <v>176.3785887617859</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>72.44497470121472</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25081,19 +25081,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>223.6799913536627</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25312,13 +25312,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>22.63678056686677</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>18.4946655721895</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>13.66255928343602</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26026,16 +26026,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26080,10 +26080,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>144.8013425629421</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26311,34 +26311,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>335917.9865019032</v>
+        <v>335917.9865019033</v>
       </c>
       <c r="C2" t="n">
         <v>369468.7964389275</v>
       </c>
       <c r="D2" t="n">
-        <v>369468.7964389274</v>
+        <v>369468.7964389275</v>
       </c>
       <c r="E2" t="n">
+        <v>363215.9698605026</v>
+      </c>
+      <c r="F2" t="n">
         <v>363215.9698605027</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>363215.9698605026</v>
       </c>
-      <c r="G2" t="n">
-        <v>363215.9698605025</v>
-      </c>
       <c r="H2" t="n">
-        <v>363215.9698605027</v>
+        <v>363215.9698605028</v>
       </c>
       <c r="I2" t="n">
         <v>363215.9698605028</v>
       </c>
       <c r="J2" t="n">
+        <v>363215.9698605027</v>
+      </c>
+      <c r="K2" t="n">
         <v>363215.9698605028</v>
-      </c>
-      <c r="K2" t="n">
-        <v>363215.9698605026</v>
       </c>
       <c r="L2" t="n">
         <v>363215.9698605027</v>
@@ -26347,13 +26347,13 @@
         <v>363215.9698605028</v>
       </c>
       <c r="N2" t="n">
+        <v>363215.9698605029</v>
+      </c>
+      <c r="O2" t="n">
+        <v>363215.9698605027</v>
+      </c>
+      <c r="P2" t="n">
         <v>363215.9698605026</v>
-      </c>
-      <c r="O2" t="n">
-        <v>363215.9698605028</v>
-      </c>
-      <c r="P2" t="n">
-        <v>363215.9698605027</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753973</v>
+        <v>939682.9358753986</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898935</v>
+        <v>172764.3597898925</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.867745751</v>
+        <v>500888.8677457508</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.016826048</v>
+        <v>169414.0168260482</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>130884.4569042353</v>
+        <v>130884.4569042349</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>117230.9551024949</v>
+        <v>117230.9551024947</v>
       </c>
       <c r="C4" t="n">
         <v>129066.754725248</v>
@@ -26424,40 +26424,40 @@
         <v>129066.754725248</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="F4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="G4" t="n">
+        <v>6287.480531695051</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6287.480531695059</v>
+      </c>
+      <c r="I4" t="n">
         <v>6287.480531695052</v>
       </c>
-      <c r="H4" t="n">
-        <v>6287.480531695061</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6287.480531695056</v>
-      </c>
       <c r="J4" t="n">
-        <v>6287.480531695054</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="L4" t="n">
-        <v>6287.480531695064</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="M4" t="n">
-        <v>6287.480531695056</v>
+        <v>6287.480531695082</v>
       </c>
       <c r="N4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695148</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.480531695061</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="P4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89345.07489699086</v>
+        <v>89345.0748969909</v>
       </c>
       <c r="C5" t="n">
-        <v>93481.08936150958</v>
+        <v>93481.0893615096</v>
       </c>
       <c r="D5" t="n">
-        <v>93481.08936150958</v>
+        <v>93481.0893615096</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-810340.97937298</v>
+        <v>-810527.3727615199</v>
       </c>
       <c r="C6" t="n">
-        <v>-25843.40743772364</v>
+        <v>-25843.4074377225</v>
       </c>
       <c r="D6" t="n">
-        <v>146920.9523521698</v>
+        <v>146920.9523521701</v>
       </c>
       <c r="E6" t="n">
-        <v>-245082.9082408505</v>
+        <v>-245117.646166286</v>
       </c>
       <c r="F6" t="n">
-        <v>255805.9595049004</v>
+        <v>255771.2215794648</v>
       </c>
       <c r="G6" t="n">
-        <v>255805.9595049005</v>
+        <v>255771.2215794647</v>
       </c>
       <c r="H6" t="n">
-        <v>255805.9595049005</v>
+        <v>255771.2215794649</v>
       </c>
       <c r="I6" t="n">
-        <v>255805.9595049006</v>
+        <v>255771.2215794649</v>
       </c>
       <c r="J6" t="n">
-        <v>86391.94267885257</v>
+        <v>86357.20475341662</v>
       </c>
       <c r="K6" t="n">
-        <v>255805.9595049004</v>
+        <v>255771.221579465</v>
       </c>
       <c r="L6" t="n">
-        <v>255805.9595049005</v>
+        <v>255771.2215794646</v>
       </c>
       <c r="M6" t="n">
-        <v>124921.5026006653</v>
+        <v>124886.7646752299</v>
       </c>
       <c r="N6" t="n">
-        <v>255805.9595049004</v>
+        <v>255771.2215794651</v>
       </c>
       <c r="O6" t="n">
-        <v>255805.9595049006</v>
+        <v>255771.2215794648</v>
       </c>
       <c r="P6" t="n">
-        <v>255805.9595049005</v>
+        <v>255771.2215794646</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976094</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>939.7063906498445</v>
+        <v>939.7063906498447</v>
       </c>
       <c r="D3" t="n">
         <v>939.7063906498445</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352463</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352463</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352463</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976094</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>189.725434152235</v>
+        <v>189.7254341522339</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918295</v>
+        <v>428.2691096918293</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,13 +26981,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352463</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2100965644023</v>
+        <v>525.210096564402</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352463</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644023</v>
+        <v>525.210096564402</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352463</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644023</v>
+        <v>525.210096564402</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27391,7 +27391,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>234.8363640420347</v>
       </c>
       <c r="H2" t="n">
         <v>308.5974454495113</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>68.16165833032983</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>111.6955455886616</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,22 +27588,22 @@
         <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
-        <v>286.245260737819</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,10 +27616,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>351.7471899724116</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>76.79944977436702</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767973</v>
+        <v>64.8355654476797</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27777,19 +27777,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>104.4906595130011</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>126.9175236136122</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>43.06976869137895</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,22 +27853,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>146.5301686954951</v>
+        <v>51.06299565392982</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>64.83556544767973</v>
@@ -27904,16 +27904,16 @@
         <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28014,7 +28014,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>17.29116115162265</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,13 +28023,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>25.12747264983017</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-6.058123835109475e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28266,7 +28266,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>4.147674796210292e-12</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28387,7 +28387,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28545,7 +28545,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>-9.426533627750662e-13</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28767,7 +28767,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>-9.426533627750662e-13</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -28779,7 +28779,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.131184035330079e-12</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29332,7 +29332,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2.103206497849897e-12</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.01499882009089</v>
+        <v>3.014998820090895</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625584</v>
+        <v>30.87735666625589</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115542</v>
+        <v>116.2357420115544</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066894</v>
+        <v>255.8942561066899</v>
       </c>
       <c r="K2" t="n">
-        <v>383.5191561611368</v>
+        <v>383.5191561611376</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014935</v>
+        <v>475.7894263014944</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682848</v>
+        <v>529.4074115682859</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658682</v>
+        <v>537.9737769658691</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485893</v>
+        <v>507.9933824485902</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775954</v>
+        <v>433.5605990775962</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330903</v>
+        <v>325.5859538330909</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325345</v>
+        <v>189.3909196325349</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282122</v>
+        <v>68.70428561282135</v>
       </c>
       <c r="T2" t="n">
-        <v>13.19815733494788</v>
+        <v>13.1981573349479</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072711</v>
+        <v>0.2411999056072716</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.613166585674103</v>
+        <v>1.613166585674106</v>
       </c>
       <c r="H3" t="n">
-        <v>15.57979307743148</v>
+        <v>15.5797930774315</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307769</v>
+        <v>55.54104253307779</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859907</v>
+        <v>152.4088658859909</v>
       </c>
       <c r="K3" t="n">
-        <v>260.4910271261555</v>
+        <v>260.491027126156</v>
       </c>
       <c r="L3" t="n">
-        <v>350.2623325605109</v>
+        <v>350.2623325605116</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911971</v>
+        <v>408.7396212911979</v>
       </c>
       <c r="N3" t="n">
-        <v>419.557742824073</v>
+        <v>419.5577428240738</v>
       </c>
       <c r="O3" t="n">
-        <v>383.8133674257153</v>
+        <v>383.813367425716</v>
       </c>
       <c r="P3" t="n">
-        <v>308.0440649433295</v>
+        <v>308.04406494333</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.9192996028908</v>
+        <v>205.9192996028912</v>
       </c>
       <c r="R3" t="n">
-        <v>100.157834152643</v>
+        <v>100.1578341526432</v>
       </c>
       <c r="S3" t="n">
-        <v>29.96386179969221</v>
+        <v>29.96386179969226</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993423</v>
+        <v>6.502193386993435</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1061293806364542</v>
+        <v>0.1061293806364544</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651427</v>
+        <v>1.352424675651429</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351906</v>
+        <v>12.02428484351908</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777201</v>
+        <v>40.67109842777208</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855586</v>
+        <v>95.61642456855604</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711385</v>
+        <v>157.1271577711387</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600312</v>
+        <v>201.0686649600316</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932504</v>
+        <v>211.9987152932508</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840044</v>
+        <v>206.9578596840047</v>
       </c>
       <c r="O4" t="n">
-        <v>191.1590805184399</v>
+        <v>191.1590805184402</v>
       </c>
       <c r="P4" t="n">
-        <v>163.5696171351507</v>
+        <v>163.569617135151</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.247124431139</v>
+        <v>113.2471244311392</v>
       </c>
       <c r="R4" t="n">
-        <v>60.80993132519959</v>
+        <v>60.8099313251997</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567076</v>
+        <v>23.56907366567081</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965185</v>
+        <v>5.778541795965196</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189609</v>
+        <v>0.07376861867189623</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.777714133265703</v>
+        <v>3.777714133265704</v>
       </c>
       <c r="H5" t="n">
         <v>38.6885148673074</v>
@@ -31285,40 +31285,40 @@
         <v>145.6403241227262</v>
       </c>
       <c r="J5" t="n">
-        <v>320.6287649182603</v>
+        <v>320.6287649182604</v>
       </c>
       <c r="K5" t="n">
-        <v>480.5394041793976</v>
+        <v>480.5394041793978</v>
       </c>
       <c r="L5" t="n">
-        <v>596.1516230853281</v>
+        <v>596.1516230853282</v>
       </c>
       <c r="M5" t="n">
-        <v>663.3335468027919</v>
+        <v>663.3335468027922</v>
       </c>
       <c r="N5" t="n">
-        <v>674.0669770839332</v>
+        <v>674.0669770839334</v>
       </c>
       <c r="O5" t="n">
-        <v>636.5023321712723</v>
+        <v>636.5023321712724</v>
       </c>
       <c r="P5" t="n">
-        <v>543.2400145062752</v>
+        <v>543.2400145062753</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.950627108697</v>
+        <v>407.9506271086971</v>
       </c>
       <c r="R5" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>86.0846608117923</v>
+        <v>86.08466081179233</v>
       </c>
       <c r="T5" t="n">
-        <v>16.53694361837062</v>
+        <v>16.53694361837063</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3022171306612562</v>
+        <v>0.3022171306612563</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31361,43 +31361,43 @@
         <v>19.52107049255621</v>
       </c>
       <c r="I6" t="n">
-        <v>69.59146383586113</v>
+        <v>69.59146383586115</v>
       </c>
       <c r="J6" t="n">
-        <v>190.9642958583802</v>
+        <v>190.9642958583803</v>
       </c>
       <c r="K6" t="n">
-        <v>326.3883979675031</v>
+        <v>326.3883979675032</v>
       </c>
       <c r="L6" t="n">
-        <v>438.8694798973638</v>
+        <v>438.8694798973639</v>
       </c>
       <c r="M6" t="n">
-        <v>512.1399829041652</v>
+        <v>512.1399829041653</v>
       </c>
       <c r="N6" t="n">
-        <v>525.6948043315579</v>
+        <v>525.694804331558</v>
       </c>
       <c r="O6" t="n">
-        <v>480.9080431470011</v>
+        <v>480.9080431470012</v>
       </c>
       <c r="P6" t="n">
-        <v>385.9711022274805</v>
+        <v>385.9711022274806</v>
       </c>
       <c r="Q6" t="n">
-        <v>258.0114603157837</v>
+        <v>258.0114603157838</v>
       </c>
       <c r="R6" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.54392985284989</v>
+        <v>37.54392985284991</v>
       </c>
       <c r="T6" t="n">
-        <v>8.147077103841573</v>
+        <v>8.147077103841575</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1329773194315818</v>
+        <v>0.1329773194315819</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,43 +31440,43 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I7" t="n">
-        <v>50.95981541425715</v>
+        <v>50.95981541425716</v>
       </c>
       <c r="J7" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K7" t="n">
-        <v>196.8761913525411</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L7" t="n">
         <v>251.9337428309436</v>
       </c>
       <c r="M7" t="n">
-        <v>265.6288080979551</v>
+        <v>265.6288080979552</v>
       </c>
       <c r="N7" t="n">
-        <v>259.3127487509646</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O7" t="n">
-        <v>239.5172944561276</v>
+        <v>239.5172944561277</v>
       </c>
       <c r="P7" t="n">
-        <v>204.9484232984512</v>
+        <v>204.9484232984513</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.8956649881265</v>
+        <v>141.8956649881266</v>
       </c>
       <c r="R7" t="n">
-        <v>76.19324275662507</v>
+        <v>76.19324275662508</v>
       </c>
       <c r="S7" t="n">
-        <v>29.53142870288116</v>
+        <v>29.53142870288117</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843061</v>
+        <v>7.240360714843063</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0924301367852307</v>
+        <v>0.09243013678523072</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,34 +31829,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>189.0011860882997</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,13 +31865,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>381.285518532932</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32315,13 +32315,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>344.6306853939244</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N18" t="n">
         <v>131.3417120833333</v>
@@ -32336,7 +32336,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,22 +32546,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>545.3845241768652</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>704.1404939038099</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32570,10 +32570,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,34 +32783,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L24" t="n">
-        <v>506.5895320981981</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>305.5427724581384</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33260,13 +33260,13 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>362.180468412921</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33500,37 +33500,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,37 +33646,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33685,10 +33685,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33734,37 +33734,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N36" t="n">
-        <v>602.4605829984181</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33810,28 +33810,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33840,7 +33840,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,37 +33883,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33922,10 +33922,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,40 +33968,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>345.6771571865338</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34047,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,37 +34120,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34159,10 +34159,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,40 +34205,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P42" t="n">
-        <v>397.6543049213403</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34284,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34448,10 +34448,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>537.6437863443698</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>74.84835158000311</v>
+        <v>74.84835158000359</v>
       </c>
       <c r="K2" t="n">
-        <v>163.4293051161563</v>
+        <v>163.429305116157</v>
       </c>
       <c r="L2" t="n">
-        <v>647.4981915352463</v>
+        <v>240.0230113315071</v>
       </c>
       <c r="M2" t="n">
-        <v>299.0611783410121</v>
+        <v>299.0611783410131</v>
       </c>
       <c r="N2" t="n">
-        <v>583.1761675084601</v>
+        <v>308.5607133692782</v>
       </c>
       <c r="O2" t="n">
-        <v>277.8951710269026</v>
+        <v>638.1870971983384</v>
       </c>
       <c r="P2" t="n">
-        <v>202.3276033223259</v>
+        <v>524.1263114938092</v>
       </c>
       <c r="Q2" t="n">
-        <v>315.5952546185455</v>
+        <v>315.5952546185461</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>25.57123921932396</v>
+        <v>151.662274559733</v>
       </c>
       <c r="K3" t="n">
-        <v>122.6495881517965</v>
+        <v>224.2152777374074</v>
       </c>
       <c r="L3" t="n">
-        <v>211.7079527806367</v>
+        <v>582.5482980840966</v>
       </c>
       <c r="M3" t="n">
-        <v>647.4981915352463</v>
+        <v>266.6055873691795</v>
       </c>
       <c r="N3" t="n">
-        <v>647.4981915352463</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="O3" t="n">
-        <v>458.8215890446849</v>
+        <v>241.2171229812715</v>
       </c>
       <c r="P3" t="n">
-        <v>174.0696575289992</v>
+        <v>174.0696575289998</v>
       </c>
       <c r="Q3" t="n">
-        <v>276.0148132527184</v>
+        <v>276.0148132527188</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451883082</v>
+        <v>2.257244451883267</v>
       </c>
       <c r="K4" t="n">
-        <v>134.8576659452556</v>
+        <v>134.8576659452559</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203474</v>
+        <v>228.6586902203478</v>
       </c>
       <c r="M4" t="n">
-        <v>251.582592255091</v>
+        <v>251.5825922550914</v>
       </c>
       <c r="N4" t="n">
-        <v>251.090032063233</v>
+        <v>251.0900320632333</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324796</v>
+        <v>215.7442084324799</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000442</v>
+        <v>160.8481764000445</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944464</v>
+        <v>27.08508117944484</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>139.582860391574</v>
+        <v>139.5828603915741</v>
       </c>
       <c r="K5" t="n">
-        <v>260.4495531344169</v>
+        <v>260.4495531344172</v>
       </c>
       <c r="L5" t="n">
-        <v>360.3852081153408</v>
+        <v>360.385208115341</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755192</v>
+        <v>432.9873135755195</v>
       </c>
       <c r="N5" t="n">
-        <v>444.6539134873423</v>
+        <v>444.6539134873424</v>
       </c>
       <c r="O5" t="n">
-        <v>406.4041207495856</v>
+        <v>406.4041207495857</v>
       </c>
       <c r="P5" t="n">
-        <v>312.0070187510057</v>
+        <v>312.0070187510058</v>
       </c>
       <c r="Q5" t="n">
-        <v>185.6449372342475</v>
+        <v>185.6449372342476</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961983</v>
+        <v>21.71629760961989</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>64.12666919171352</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K6" t="n">
-        <v>453.0121960057227</v>
+        <v>362.3108833671838</v>
       </c>
       <c r="L6" t="n">
-        <v>300.3151001174896</v>
+        <v>300.3151001174897</v>
       </c>
       <c r="M6" t="n">
-        <v>370.0059489821469</v>
+        <v>370.005948982147</v>
       </c>
       <c r="N6" t="n">
-        <v>429.7428149500954</v>
+        <v>394.3530922482247</v>
       </c>
       <c r="O6" t="n">
-        <v>338.3117987025566</v>
+        <v>338.3117987025568</v>
       </c>
       <c r="P6" t="n">
         <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>328.1069739656113</v>
+        <v>328.1069739656114</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.4456821797836</v>
+        <v>26.44568217978363</v>
       </c>
       <c r="K7" t="n">
         <v>174.6066995266583</v>
@@ -35100,19 +35100,19 @@
         <v>279.5237680912597</v>
       </c>
       <c r="M7" t="n">
-        <v>305.2126850597957</v>
+        <v>305.2126850597958</v>
       </c>
       <c r="N7" t="n">
-        <v>303.4449211301932</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O7" t="n">
         <v>264.1024223701673</v>
       </c>
       <c r="P7" t="n">
-        <v>202.2269825633447</v>
+        <v>202.2269825633448</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.73362173643211</v>
+        <v>55.73362173643217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>64.12666919171352</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K9" t="n">
-        <v>453.0121960057227</v>
+        <v>294.8959285499342</v>
       </c>
       <c r="L9" t="n">
-        <v>335.7048228193603</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M9" t="n">
-        <v>370.0059489821469</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="N9" t="n">
         <v>394.3530922482246</v>
@@ -35270,7 +35270,7 @@
         <v>251.9966948131503</v>
       </c>
       <c r="Q9" t="n">
-        <v>328.1069739656113</v>
+        <v>118.0296862297622</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>57.65947400496642</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>261.348781916454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>249.9438064495987</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35963,13 +35963,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>206.7892464195654</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35984,7 +35984,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36136,13 +36136,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,22 +36194,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>406.830144396991</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>572.7987818204766</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36218,10 +36218,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36370,7 +36370,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L24" t="n">
-        <v>368.0351523183239</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,31 +36668,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>165.5609983721169</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295222</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>224.339029438562</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,31 +37300,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367786</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N36" t="n">
-        <v>471.1188709150848</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37470,19 +37470,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,31 +37537,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L39" t="n">
-        <v>207.1227774066596</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37707,19 +37707,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,31 +37774,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P42" t="n">
-        <v>263.67989750701</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37944,19 +37944,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38096,10 +38096,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>395.0475418999253</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
